--- a/src/analysis/python/data/bluebook_manual_data_online_WORKING.xlsx
+++ b/src/analysis/python/data/bluebook_manual_data_online_WORKING.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivergiesecke/Dropbox/MPCounterfactual/src/analysis/python/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DABE776-B11D-8943-9873-0F009E6AB873}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6CFAF3-FFA4-2049-8498-671DBC3F8134}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="3740" windowWidth="19560" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6140" yWindow="460" windowWidth="19560" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="1050">
   <si>
     <t>start_date</t>
   </si>
@@ -2560,9 +2560,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>(24) Alternative C might be favored if the Committee saw the economy as continuing to operate beyond its potential, with the risk that sustained pressures on labor markets might show through more forcefully than in the staff forecast to higher labor costs and prices, perhaps hinted at in the recent employment cost report.</t>
-  </si>
-  <si>
     <t>25 basis point reduction in the federal funds rate under alternative A would translate to nearly comparable reductions in other short-term rates.</t>
   </si>
   <si>
@@ -3170,6 +3167,9 @@
   </si>
   <si>
     <t>The draft statement for Alternative C uses the same structure as in the January FOMC statement. In contrast, Alternative C characterizes the incoming information as indicating that economic 12 These alternatives do not include any expansion in Federal Reserve purchases of agency debt, because the benefits from further purchases of such securities seem limited. As in January, Alternative C refers to last fall_x001A_s drop in energy and commodity prices and to _x001A_prospects for considerable economic slack_x001A_ as factors explaining the outlook for inflation, which is expected to remain subdued _x001A_in coming quarters_x001A_ before returning to rates consistent with the dual mandate; this alternative does not give an assessment of risks to the inflation outlook. _x001A_ Under Alternative C, no new policy actions would be taken at this meeting; instead, as in January, this Class I FOMC - Restricted Controlled (FR) 36 of 60 alternative states that the Federal Reserve stands ready to expand its purchases of agency debt and MBS and is prepared to purchase longer-term Treasury securities in light of evolving circumstances. Class I FOMC - Restricted Controlled (FR) 40 of 60 Alternative C 1. The Case for Alternative C (52) If policymakers anticipate a more robust economic recovery than in the staff outlook and perceive that further expansion in the size of the Federal Reserve_x001A_s balance sheet would be associated with substantial risks to the future conduct of monetary policy, they may prefer not to initiate any new policy measures at this meeting, as in Alternative C. An Alternative Structure for the FOMC Statement (53) The draft statements for Alternatives A and B begin by characterizing the outlook for economic activity and inflation, and the draft statement for Alternative C starts by indicating the Committee_x001A_s decision to maintain the target range for the federal funds rate. However, participants may instead prefer that the FOMC statement begin by pointing to new policy measures that the Committee has approved, as illustrated in Alternatives A' and B' below, or to reaffirm the existing policy strategy, as in Alternative C'. Class I FOMC - Restricted Controlled (FR) 52 of 60 Alternative C' 1. Alternative C: The Federal Open Market Committee seeks monetary and financial conditions that will foster price stability and promote sustainable growth in output.</t>
+  </si>
+  <si>
+    <t>(24) Alternative C might be favored if the Committee saw the economy as continuing to operate beyond its potential, with the risk that sustained pressures on labor markets might show through more forcefully than in the staff forecast to higher labor costs and prices, perhaps hinted at in the recent employment cost report. Domestic spending continues to be supported by very favorable conditions in debt and equity markets. The decline in long-term rates should spur spending, in part as borrowers free cash flow by refinancing higher cost debt. In this environment, counting on Asian developments to defuse enough of the momentum in the economy may be viewed as too risky, especially as the rebound in Asian stock markets and in commodity prices may suggest that limits to Asian turmoil may be in sight. In response to the tightening, short-term rates would rise by at least the 25 basis point increase in the federal funds rate. Intermediate- and long-term yields would also rise, although market participants are unlikely to build in much further tightening in light of the situation in Asia, thereby constraining the extent of the increase. Stocks would come under some selling pressure, accentuated perhaps by the uncertainty precipitated by such a surprise in policy. The dollar would tend to rise on foreign exchange markets.</t>
   </si>
 </sst>
 </file>
@@ -4014,9 +4014,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L317" sqref="L317"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R288" sqref="R288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14348,6 +14348,12 @@
       <c r="R261" t="s">
         <v>746</v>
       </c>
+      <c r="S261" t="s">
+        <v>571</v>
+      </c>
+      <c r="T261">
+        <v>0.75</v>
+      </c>
       <c r="V261" t="s">
         <v>30</v>
       </c>
@@ -15828,11 +15834,11 @@
       <c r="O287" t="s">
         <v>571</v>
       </c>
-      <c r="P287" t="s">
-        <v>845</v>
+      <c r="P287">
+        <v>0.25</v>
       </c>
       <c r="R287" t="s">
-        <v>846</v>
+        <v>1049</v>
       </c>
       <c r="V287" t="s">
         <v>30</v>
@@ -15867,10 +15873,10 @@
         <v>-0.25</v>
       </c>
       <c r="I288" t="s">
+        <v>846</v>
+      </c>
+      <c r="J288" t="s">
         <v>847</v>
-      </c>
-      <c r="J288" t="s">
-        <v>848</v>
       </c>
       <c r="K288" t="s">
         <v>569</v>
@@ -15879,7 +15885,7 @@
         <v>0</v>
       </c>
       <c r="N288" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O288" t="s">
         <v>571</v>
@@ -15888,10 +15894,10 @@
         <v>0.25</v>
       </c>
       <c r="Q288" t="s">
+        <v>849</v>
+      </c>
+      <c r="R288" t="s">
         <v>850</v>
-      </c>
-      <c r="R288" t="s">
-        <v>851</v>
       </c>
       <c r="V288" t="s">
         <v>30</v>
@@ -15935,7 +15941,7 @@
         <v>0</v>
       </c>
       <c r="N289" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O289" t="s">
         <v>571</v>
@@ -15944,7 +15950,7 @@
         <v>0.25</v>
       </c>
       <c r="R289" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="V289" t="s">
         <v>30</v>
@@ -15988,7 +15994,7 @@
         <v>0</v>
       </c>
       <c r="N290" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="O290" t="s">
         <v>571</v>
@@ -15997,10 +16003,10 @@
         <v>0.25</v>
       </c>
       <c r="Q290" t="s">
+        <v>854</v>
+      </c>
+      <c r="R290" t="s">
         <v>855</v>
-      </c>
-      <c r="R290" t="s">
-        <v>856</v>
       </c>
       <c r="V290" t="s">
         <v>30</v>
@@ -16035,7 +16041,7 @@
         <v>-0.25</v>
       </c>
       <c r="J291" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K291" t="s">
         <v>569</v>
@@ -16044,7 +16050,7 @@
         <v>0</v>
       </c>
       <c r="N291" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="O291" t="s">
         <v>571</v>
@@ -16053,7 +16059,7 @@
         <v>0.25</v>
       </c>
       <c r="R291" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="V291" t="s">
         <v>30</v>
@@ -16088,10 +16094,10 @@
         <v>-0.25</v>
       </c>
       <c r="I292" t="s">
+        <v>859</v>
+      </c>
+      <c r="J292" t="s">
         <v>860</v>
-      </c>
-      <c r="J292" t="s">
-        <v>861</v>
       </c>
       <c r="K292" t="s">
         <v>569</v>
@@ -16100,7 +16106,7 @@
         <v>0</v>
       </c>
       <c r="N292" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="O292" t="s">
         <v>582</v>
@@ -16144,10 +16150,10 @@
         <v>-0.25</v>
       </c>
       <c r="I293" t="s">
+        <v>862</v>
+      </c>
+      <c r="J293" t="s">
         <v>863</v>
-      </c>
-      <c r="J293" t="s">
-        <v>864</v>
       </c>
       <c r="K293" t="s">
         <v>569</v>
@@ -16156,7 +16162,7 @@
         <v>0</v>
       </c>
       <c r="N293" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="O293" t="s">
         <v>582</v>
@@ -16200,10 +16206,10 @@
         <v>-0.25</v>
       </c>
       <c r="I294" t="s">
+        <v>865</v>
+      </c>
+      <c r="J294" t="s">
         <v>866</v>
-      </c>
-      <c r="J294" t="s">
-        <v>867</v>
       </c>
       <c r="K294" t="s">
         <v>569</v>
@@ -16212,7 +16218,7 @@
         <v>0</v>
       </c>
       <c r="N294" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="O294" t="s">
         <v>571</v>
@@ -16221,10 +16227,10 @@
         <v>0.25</v>
       </c>
       <c r="Q294" t="s">
+        <v>868</v>
+      </c>
+      <c r="R294" t="s">
         <v>869</v>
-      </c>
-      <c r="R294" t="s">
-        <v>870</v>
       </c>
       <c r="V294" t="s">
         <v>30</v>
@@ -16259,10 +16265,10 @@
         <v>-0.25</v>
       </c>
       <c r="I295" t="s">
+        <v>870</v>
+      </c>
+      <c r="J295" t="s">
         <v>871</v>
-      </c>
-      <c r="J295" t="s">
-        <v>872</v>
       </c>
       <c r="K295" t="s">
         <v>569</v>
@@ -16271,7 +16277,7 @@
         <v>0</v>
       </c>
       <c r="N295" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="O295" t="s">
         <v>571</v>
@@ -16280,7 +16286,7 @@
         <v>0.25</v>
       </c>
       <c r="R295" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="V295" t="s">
         <v>30</v>
@@ -16324,7 +16330,7 @@
         <v>0</v>
       </c>
       <c r="N296" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="O296" t="s">
         <v>571</v>
@@ -16333,7 +16339,7 @@
         <v>0.25</v>
       </c>
       <c r="R296" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="V296" t="s">
         <v>30</v>
@@ -16377,7 +16383,7 @@
         <v>0</v>
       </c>
       <c r="N297" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="O297" t="s">
         <v>571</v>
@@ -16386,7 +16392,7 @@
         <v>0.25</v>
       </c>
       <c r="R297" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="V297" t="s">
         <v>30</v>
@@ -16430,7 +16436,7 @@
         <v>0</v>
       </c>
       <c r="N298" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="O298" t="s">
         <v>571</v>
@@ -16439,7 +16445,7 @@
         <v>0.25</v>
       </c>
       <c r="R298" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="V298" t="s">
         <v>30</v>
@@ -16483,7 +16489,7 @@
         <v>0</v>
       </c>
       <c r="N299" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="O299" t="s">
         <v>571</v>
@@ -16492,7 +16498,7 @@
         <v>0.25</v>
       </c>
       <c r="R299" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="V299" t="s">
         <v>30</v>
@@ -16536,7 +16542,7 @@
         <v>0</v>
       </c>
       <c r="N300" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="O300" t="s">
         <v>571</v>
@@ -16545,7 +16551,7 @@
         <v>0.25</v>
       </c>
       <c r="R300" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="V300" t="s">
         <v>30</v>
@@ -16589,7 +16595,7 @@
         <v>0</v>
       </c>
       <c r="N301" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="O301" t="s">
         <v>571</v>
@@ -16598,7 +16604,7 @@
         <v>0.25</v>
       </c>
       <c r="R301" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="V301" t="s">
         <v>30</v>
@@ -16642,7 +16648,7 @@
         <v>0</v>
       </c>
       <c r="N302" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="O302" t="s">
         <v>571</v>
@@ -16651,7 +16657,7 @@
         <v>0.25</v>
       </c>
       <c r="R302" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="V302" t="s">
         <v>30</v>
@@ -16695,7 +16701,7 @@
         <v>0</v>
       </c>
       <c r="N303" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="O303" t="s">
         <v>571</v>
@@ -16704,7 +16710,7 @@
         <v>0.25</v>
       </c>
       <c r="R303" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="S303" t="s">
         <v>571</v>
@@ -16713,7 +16719,7 @@
         <v>0.5</v>
       </c>
       <c r="V303" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="Z303" t="s">
         <v>31</v>
@@ -16754,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="N304" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="O304" t="s">
         <v>571</v>
@@ -16763,7 +16769,7 @@
         <v>0.25</v>
       </c>
       <c r="R304" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="S304" t="s">
         <v>571</v>
@@ -16772,7 +16778,7 @@
         <v>0.5</v>
       </c>
       <c r="V304" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="Z304" t="s">
         <v>31</v>
@@ -16822,10 +16828,10 @@
         <v>0.25</v>
       </c>
       <c r="Q305" t="s">
+        <v>894</v>
+      </c>
+      <c r="R305" t="s">
         <v>895</v>
-      </c>
-      <c r="R305" t="s">
-        <v>896</v>
       </c>
       <c r="S305" t="s">
         <v>571</v>
@@ -16834,7 +16840,7 @@
         <v>0.5</v>
       </c>
       <c r="V305" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="Z305" t="s">
         <v>31</v>
@@ -16875,7 +16881,7 @@
         <v>0</v>
       </c>
       <c r="N306" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="O306" t="s">
         <v>571</v>
@@ -16884,7 +16890,7 @@
         <v>0.25</v>
       </c>
       <c r="R306" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="V306" t="s">
         <v>30</v>
@@ -16928,7 +16934,7 @@
         <v>0</v>
       </c>
       <c r="N307" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="O307" t="s">
         <v>571</v>
@@ -16937,7 +16943,7 @@
         <v>0.25</v>
       </c>
       <c r="R307" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="V307" t="s">
         <v>30</v>
@@ -16981,7 +16987,7 @@
         <v>0</v>
       </c>
       <c r="N308" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="O308" t="s">
         <v>571</v>
@@ -16990,7 +16996,7 @@
         <v>0.25</v>
       </c>
       <c r="R308" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="V308" t="s">
         <v>30</v>
@@ -17025,10 +17031,10 @@
         <v>-0.25</v>
       </c>
       <c r="I309" t="s">
+        <v>903</v>
+      </c>
+      <c r="J309" t="s">
         <v>904</v>
-      </c>
-      <c r="J309" t="s">
-        <v>905</v>
       </c>
       <c r="K309" t="s">
         <v>569</v>
@@ -17037,7 +17043,7 @@
         <v>0</v>
       </c>
       <c r="N309" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="O309" t="s">
         <v>571</v>
@@ -17046,7 +17052,7 @@
         <v>0.25</v>
       </c>
       <c r="R309" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="V309" t="s">
         <v>30</v>
@@ -17081,10 +17087,10 @@
         <v>-0.25</v>
       </c>
       <c r="I310" t="s">
+        <v>907</v>
+      </c>
+      <c r="J310" t="s">
         <v>908</v>
-      </c>
-      <c r="J310" t="s">
-        <v>909</v>
       </c>
       <c r="K310" t="s">
         <v>569</v>
@@ -17093,7 +17099,7 @@
         <v>0</v>
       </c>
       <c r="N310" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="O310" t="s">
         <v>571</v>
@@ -17102,7 +17108,7 @@
         <v>0.25</v>
       </c>
       <c r="R310" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="V310" t="s">
         <v>30</v>
@@ -17137,7 +17143,7 @@
         <v>-0.25</v>
       </c>
       <c r="J311" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="K311" t="s">
         <v>569</v>
@@ -17146,7 +17152,7 @@
         <v>0</v>
       </c>
       <c r="N311" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="O311" t="s">
         <v>569</v>
@@ -17156,6 +17162,12 @@
       </c>
       <c r="R311" t="s">
         <v>29</v>
+      </c>
+      <c r="S311" t="s">
+        <v>567</v>
+      </c>
+      <c r="T311">
+        <v>-0.5</v>
       </c>
       <c r="V311" t="s">
         <v>30</v>
@@ -17190,7 +17202,7 @@
         <v>-0.5</v>
       </c>
       <c r="J312" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K312" t="s">
         <v>567</v>
@@ -17199,7 +17211,7 @@
         <v>-0.75</v>
       </c>
       <c r="N312" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O312" t="s">
         <v>567</v>
@@ -17243,7 +17255,7 @@
         <v>-0.5</v>
       </c>
       <c r="J313" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K313" t="s">
         <v>567</v>
@@ -17252,7 +17264,7 @@
         <v>-0.25</v>
       </c>
       <c r="N313" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O313" t="s">
         <v>567</v>
@@ -17296,7 +17308,7 @@
         <v>0</v>
       </c>
       <c r="J314" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K314" t="s">
         <v>567</v>
@@ -17305,7 +17317,7 @@
         <v>-0.25</v>
       </c>
       <c r="N314" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O314" t="s">
         <v>567</v>
@@ -17349,7 +17361,7 @@
         <v>0</v>
       </c>
       <c r="J315" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K315" t="s">
         <v>567</v>
@@ -17358,7 +17370,7 @@
         <v>-0.25</v>
       </c>
       <c r="N315" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O315" t="s">
         <v>567</v>
@@ -17402,7 +17414,7 @@
         <v>-0.25</v>
       </c>
       <c r="J316" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K316" t="s">
         <v>567</v>
@@ -17411,7 +17423,7 @@
         <v>-0.5</v>
       </c>
       <c r="N316" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O316" t="s">
         <v>582</v>
@@ -17455,7 +17467,7 @@
         <v>0</v>
       </c>
       <c r="J317" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K317" t="s">
         <v>567</v>
@@ -17464,7 +17476,7 @@
         <v>-0.25</v>
       </c>
       <c r="N317" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O317" t="s">
         <v>567</v>
@@ -17508,7 +17520,7 @@
         <v>0</v>
       </c>
       <c r="J318" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K318" t="s">
         <v>567</v>
@@ -17517,7 +17529,7 @@
         <v>-0.25</v>
       </c>
       <c r="N318" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O318" t="s">
         <v>567</v>
@@ -17561,7 +17573,7 @@
         <v>0</v>
       </c>
       <c r="J319" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K319" t="s">
         <v>567</v>
@@ -17570,7 +17582,7 @@
         <v>-0.25</v>
       </c>
       <c r="N319" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O319" t="s">
         <v>582</v>
@@ -17614,7 +17626,7 @@
         <v>-0.25</v>
       </c>
       <c r="J320" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K320" t="s">
         <v>569</v>
@@ -17623,7 +17635,7 @@
         <v>0</v>
       </c>
       <c r="N320" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O320" t="s">
         <v>571</v>
@@ -17667,7 +17679,7 @@
         <v>0</v>
       </c>
       <c r="J321" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K321" t="s">
         <v>571</v>
@@ -17676,7 +17688,7 @@
         <v>0.25</v>
       </c>
       <c r="N321" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O321" t="s">
         <v>582</v>
@@ -17720,7 +17732,7 @@
         <v>0</v>
       </c>
       <c r="J322" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K322" t="s">
         <v>567</v>
@@ -17729,7 +17741,7 @@
         <v>-0.25</v>
       </c>
       <c r="N322" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O322" t="s">
         <v>571</v>
@@ -17773,7 +17785,7 @@
         <v>0</v>
       </c>
       <c r="J323" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K323" t="s">
         <v>567</v>
@@ -17782,7 +17794,7 @@
         <v>-0.25</v>
       </c>
       <c r="N323" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O323" t="s">
         <v>582</v>
@@ -17826,7 +17838,7 @@
         <v>0</v>
       </c>
       <c r="J324" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K324" t="s">
         <v>567</v>
@@ -17835,7 +17847,7 @@
         <v>-0.25</v>
       </c>
       <c r="N324" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O324" t="s">
         <v>567</v>
@@ -17879,7 +17891,7 @@
         <v>0</v>
       </c>
       <c r="J325" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K325" t="s">
         <v>567</v>
@@ -17888,7 +17900,7 @@
         <v>-0.25</v>
       </c>
       <c r="N325" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O325" t="s">
         <v>567</v>
@@ -17932,7 +17944,7 @@
         <v>0</v>
       </c>
       <c r="J326" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K326" t="s">
         <v>567</v>
@@ -17941,7 +17953,7 @@
         <v>-0.25</v>
       </c>
       <c r="N326" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O326" t="s">
         <v>582</v>
@@ -17985,7 +17997,7 @@
         <v>0</v>
       </c>
       <c r="J327" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K327" t="s">
         <v>567</v>
@@ -17994,7 +18006,7 @@
         <v>-0.25</v>
       </c>
       <c r="N327" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O327" t="s">
         <v>582</v>
@@ -18038,7 +18050,7 @@
         <v>0</v>
       </c>
       <c r="J328" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K328" t="s">
         <v>567</v>
@@ -18047,7 +18059,7 @@
         <v>-0.25</v>
       </c>
       <c r="N328" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O328" t="s">
         <v>567</v>
@@ -18091,7 +18103,7 @@
         <v>0</v>
       </c>
       <c r="J329" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K329" t="s">
         <v>567</v>
@@ -18100,7 +18112,7 @@
         <v>-0.25</v>
       </c>
       <c r="N329" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O329" t="s">
         <v>567</v>
@@ -18144,7 +18156,7 @@
         <v>-0.25</v>
       </c>
       <c r="J330" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K330" t="s">
         <v>567</v>
@@ -18153,7 +18165,7 @@
         <v>-0.5</v>
       </c>
       <c r="N330" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O330" t="s">
         <v>569</v>
@@ -18197,7 +18209,7 @@
         <v>0</v>
       </c>
       <c r="J331" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K331" t="s">
         <v>567</v>
@@ -18206,7 +18218,7 @@
         <v>-0.25</v>
       </c>
       <c r="N331" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O331" t="s">
         <v>582</v>
@@ -18250,7 +18262,7 @@
         <v>0</v>
       </c>
       <c r="J332" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K332" t="s">
         <v>567</v>
@@ -18259,7 +18271,7 @@
         <v>-0.25</v>
       </c>
       <c r="N332" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O332" t="s">
         <v>582</v>
@@ -18303,7 +18315,7 @@
         <v>0</v>
       </c>
       <c r="J333" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K333" t="s">
         <v>567</v>
@@ -18312,7 +18324,7 @@
         <v>-0.25</v>
       </c>
       <c r="N333" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O333" t="s">
         <v>582</v>
@@ -18356,7 +18368,7 @@
         <v>0</v>
       </c>
       <c r="J334" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K334" t="s">
         <v>567</v>
@@ -18365,7 +18377,7 @@
         <v>-0.25</v>
       </c>
       <c r="N334" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O334" t="s">
         <v>582</v>
@@ -18409,7 +18421,7 @@
         <v>0</v>
       </c>
       <c r="J335" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K335" t="s">
         <v>567</v>
@@ -18418,7 +18430,7 @@
         <v>-0.25</v>
       </c>
       <c r="N335" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O335" t="s">
         <v>582</v>
@@ -18462,7 +18474,7 @@
         <v>0</v>
       </c>
       <c r="J336" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="K336" t="s">
         <v>569</v>
@@ -18471,7 +18483,7 @@
         <v>0</v>
       </c>
       <c r="N336" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="O336" t="s">
         <v>569</v>
@@ -18480,7 +18492,7 @@
         <v>0</v>
       </c>
       <c r="R336" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="V336" t="s">
         <v>30</v>
@@ -18515,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="J337" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="K337" t="s">
         <v>569</v>
@@ -18524,7 +18536,7 @@
         <v>0</v>
       </c>
       <c r="N337" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="O337" t="s">
         <v>571</v>
@@ -18533,7 +18545,7 @@
         <v>0.25</v>
       </c>
       <c r="R337" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="V337" t="s">
         <v>30</v>
@@ -18568,7 +18580,7 @@
         <v>0</v>
       </c>
       <c r="J338" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="K338" t="s">
         <v>571</v>
@@ -18577,7 +18589,7 @@
         <v>0.25</v>
       </c>
       <c r="N338" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="O338" t="s">
         <v>571</v>
@@ -18586,7 +18598,7 @@
         <v>0.5</v>
       </c>
       <c r="R338" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="V338" t="s">
         <v>30</v>
@@ -18621,7 +18633,7 @@
         <v>0</v>
       </c>
       <c r="J339" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="K339" t="s">
         <v>571</v>
@@ -18630,7 +18642,7 @@
         <v>0.25</v>
       </c>
       <c r="N339" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="O339" t="s">
         <v>571</v>
@@ -18639,7 +18651,7 @@
         <v>0.5</v>
       </c>
       <c r="R339" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="V339" t="s">
         <v>30</v>
@@ -18674,7 +18686,7 @@
         <v>0</v>
       </c>
       <c r="J340" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K340" t="s">
         <v>571</v>
@@ -18683,7 +18695,7 @@
         <v>0.25</v>
       </c>
       <c r="N340" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="O340" t="s">
         <v>571</v>
@@ -18692,10 +18704,10 @@
         <v>0.25</v>
       </c>
       <c r="Q340" t="s">
+        <v>929</v>
+      </c>
+      <c r="R340" t="s">
         <v>930</v>
-      </c>
-      <c r="R340" t="s">
-        <v>931</v>
       </c>
       <c r="V340" t="s">
         <v>30</v>
@@ -18730,7 +18742,7 @@
         <v>0</v>
       </c>
       <c r="J341" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="K341" t="s">
         <v>571</v>
@@ -18739,7 +18751,7 @@
         <v>0.25</v>
       </c>
       <c r="N341" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="O341" t="s">
         <v>571</v>
@@ -18748,7 +18760,7 @@
         <v>0.25</v>
       </c>
       <c r="R341" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="V341" t="s">
         <v>30</v>
@@ -18783,7 +18795,7 @@
         <v>0</v>
       </c>
       <c r="J342" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="K342" t="s">
         <v>571</v>
@@ -18792,7 +18804,7 @@
         <v>0.25</v>
       </c>
       <c r="N342" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="O342" t="s">
         <v>571</v>
@@ -18801,10 +18813,10 @@
         <v>0.25</v>
       </c>
       <c r="Q342" t="s">
+        <v>936</v>
+      </c>
+      <c r="R342" t="s">
         <v>937</v>
-      </c>
-      <c r="R342" t="s">
-        <v>938</v>
       </c>
       <c r="V342" t="s">
         <v>30</v>
@@ -18839,7 +18851,7 @@
         <v>0</v>
       </c>
       <c r="J343" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K343" t="s">
         <v>571</v>
@@ -18848,7 +18860,7 @@
         <v>0.25</v>
       </c>
       <c r="N343" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O343" t="s">
         <v>571</v>
@@ -18857,10 +18869,10 @@
         <v>0.5</v>
       </c>
       <c r="Q343" t="s">
+        <v>940</v>
+      </c>
+      <c r="R343" t="s">
         <v>941</v>
-      </c>
-      <c r="R343" t="s">
-        <v>942</v>
       </c>
       <c r="V343" t="s">
         <v>30</v>
@@ -18895,7 +18907,7 @@
         <v>0.25</v>
       </c>
       <c r="J344" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="K344" t="s">
         <v>571</v>
@@ -18904,7 +18916,7 @@
         <v>0.25</v>
       </c>
       <c r="N344" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="O344" t="s">
         <v>571</v>
@@ -18913,7 +18925,7 @@
         <v>0.5</v>
       </c>
       <c r="R344" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="V344" t="s">
         <v>30</v>
@@ -18948,10 +18960,10 @@
         <v>0.25</v>
       </c>
       <c r="I345" t="s">
+        <v>945</v>
+      </c>
+      <c r="J345" t="s">
         <v>946</v>
-      </c>
-      <c r="J345" t="s">
-        <v>947</v>
       </c>
       <c r="K345" t="s">
         <v>571</v>
@@ -18960,7 +18972,7 @@
         <v>0.25</v>
       </c>
       <c r="N345" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="O345" t="s">
         <v>571</v>
@@ -18969,7 +18981,7 @@
         <v>0.5</v>
       </c>
       <c r="R345" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="V345" t="s">
         <v>30</v>
@@ -19004,10 +19016,10 @@
         <v>0.25</v>
       </c>
       <c r="I346" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J346" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K346" t="s">
         <v>571</v>
@@ -19016,7 +19028,7 @@
         <v>0.25</v>
       </c>
       <c r="N346" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="O346" t="s">
         <v>571</v>
@@ -19025,7 +19037,7 @@
         <v>0.5</v>
       </c>
       <c r="R346" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="V346" t="s">
         <v>30</v>
@@ -19060,10 +19072,10 @@
         <v>0.25</v>
       </c>
       <c r="I347" t="s">
+        <v>952</v>
+      </c>
+      <c r="J347" t="s">
         <v>953</v>
-      </c>
-      <c r="J347" t="s">
-        <v>954</v>
       </c>
       <c r="K347" t="s">
         <v>571</v>
@@ -19072,7 +19084,7 @@
         <v>0.25</v>
       </c>
       <c r="N347" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O347" t="s">
         <v>571</v>
@@ -19081,7 +19093,7 @@
         <v>0.5</v>
       </c>
       <c r="R347" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="V347" t="s">
         <v>30</v>
@@ -19116,7 +19128,7 @@
         <v>0</v>
       </c>
       <c r="J348" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="K348" t="s">
         <v>571</v>
@@ -19125,7 +19137,7 @@
         <v>0.25</v>
       </c>
       <c r="N348" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="O348" t="s">
         <v>582</v>
@@ -19169,7 +19181,7 @@
         <v>0</v>
       </c>
       <c r="J349" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="K349" t="s">
         <v>571</v>
@@ -19178,7 +19190,7 @@
         <v>0.25</v>
       </c>
       <c r="N349" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="O349" t="s">
         <v>571</v>
@@ -19187,7 +19199,7 @@
         <v>0.5</v>
       </c>
       <c r="R349" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="V349" t="s">
         <v>30</v>
@@ -19231,7 +19243,7 @@
         <v>0.25</v>
       </c>
       <c r="N350" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="O350" t="s">
         <v>571</v>
@@ -19240,7 +19252,7 @@
         <v>0.25</v>
       </c>
       <c r="R350" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="V350" t="s">
         <v>30</v>
@@ -19269,16 +19281,16 @@
         <v>4.5</v>
       </c>
       <c r="G351" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H351">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I351" t="s">
+        <v>963</v>
+      </c>
+      <c r="J351" t="s">
         <v>964</v>
-      </c>
-      <c r="J351" t="s">
-        <v>965</v>
       </c>
       <c r="K351" t="s">
         <v>571</v>
@@ -19287,7 +19299,7 @@
         <v>0.25</v>
       </c>
       <c r="N351" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="O351" t="s">
         <v>571</v>
@@ -19296,7 +19308,7 @@
         <v>0.25</v>
       </c>
       <c r="R351" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="V351" t="s">
         <v>30</v>
@@ -19331,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="J352" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="K352" t="s">
         <v>571</v>
@@ -19340,7 +19352,7 @@
         <v>0.25</v>
       </c>
       <c r="N352" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="O352" t="s">
         <v>571</v>
@@ -19349,7 +19361,7 @@
         <v>0.25</v>
       </c>
       <c r="R352" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="V352" t="s">
         <v>30</v>
@@ -19384,7 +19396,7 @@
         <v>0</v>
       </c>
       <c r="J353" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="K353" t="s">
         <v>571</v>
@@ -19393,7 +19405,7 @@
         <v>0.25</v>
       </c>
       <c r="N353" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="O353" t="s">
         <v>571</v>
@@ -19402,7 +19414,7 @@
         <v>0.5</v>
       </c>
       <c r="R353" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="V353" t="s">
         <v>30</v>
@@ -19437,7 +19449,7 @@
         <v>0</v>
       </c>
       <c r="J354" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="K354" t="s">
         <v>571</v>
@@ -19446,7 +19458,7 @@
         <v>0.25</v>
       </c>
       <c r="N354" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="O354" t="s">
         <v>571</v>
@@ -19455,7 +19467,7 @@
         <v>0.5</v>
       </c>
       <c r="R354" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="V354" t="s">
         <v>30</v>
@@ -19490,7 +19502,7 @@
         <v>0</v>
       </c>
       <c r="J355" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K355" t="s">
         <v>569</v>
@@ -19499,7 +19511,7 @@
         <v>0</v>
       </c>
       <c r="N355" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="O355" t="s">
         <v>571</v>
@@ -19508,7 +19520,7 @@
         <v>0.25</v>
       </c>
       <c r="R355" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="S355" t="s">
         <v>571</v>
@@ -19517,7 +19529,7 @@
         <v>0.25</v>
       </c>
       <c r="V355" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="Z355" t="s">
         <v>31</v>
@@ -19549,7 +19561,7 @@
         <v>0</v>
       </c>
       <c r="J356" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="K356" t="s">
         <v>569</v>
@@ -19558,7 +19570,7 @@
         <v>0</v>
       </c>
       <c r="N356" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="O356" t="s">
         <v>571</v>
@@ -19567,7 +19579,7 @@
         <v>0.25</v>
       </c>
       <c r="R356" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="V356" t="s">
         <v>30</v>
@@ -19602,7 +19614,7 @@
         <v>0</v>
       </c>
       <c r="J357" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="K357" t="s">
         <v>569</v>
@@ -19611,7 +19623,7 @@
         <v>0</v>
       </c>
       <c r="N357" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O357" t="s">
         <v>571</v>
@@ -19620,7 +19632,7 @@
         <v>0.25</v>
       </c>
       <c r="R357" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="V357" t="s">
         <v>30</v>
@@ -19655,7 +19667,7 @@
         <v>0</v>
       </c>
       <c r="J358" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="K358" t="s">
         <v>569</v>
@@ -19664,7 +19676,7 @@
         <v>0</v>
       </c>
       <c r="N358" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="O358" t="s">
         <v>571</v>
@@ -19673,7 +19685,7 @@
         <v>0.25</v>
       </c>
       <c r="R358" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="V358" t="s">
         <v>30</v>
@@ -19708,7 +19720,7 @@
         <v>0</v>
       </c>
       <c r="J359" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="K359" t="s">
         <v>569</v>
@@ -19717,7 +19729,7 @@
         <v>0</v>
       </c>
       <c r="N359" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="O359" t="s">
         <v>571</v>
@@ -19726,7 +19738,7 @@
         <v>0.25</v>
       </c>
       <c r="R359" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="V359" t="s">
         <v>30</v>
@@ -19761,7 +19773,7 @@
         <v>-0.25</v>
       </c>
       <c r="J360" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="K360" t="s">
         <v>569</v>
@@ -19770,7 +19782,7 @@
         <v>0</v>
       </c>
       <c r="N360" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="O360" t="s">
         <v>571</v>
@@ -19779,7 +19791,7 @@
         <v>0.25</v>
       </c>
       <c r="R360" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="V360" t="s">
         <v>30</v>
@@ -19814,7 +19826,7 @@
         <v>-0.25</v>
       </c>
       <c r="J361" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="K361" t="s">
         <v>569</v>
@@ -19823,7 +19835,7 @@
         <v>0</v>
       </c>
       <c r="N361" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="O361" t="s">
         <v>571</v>
@@ -19832,7 +19844,7 @@
         <v>0.25</v>
       </c>
       <c r="R361" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="V361" t="s">
         <v>30</v>
@@ -19867,7 +19879,7 @@
         <v>-0.25</v>
       </c>
       <c r="J362" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K362" t="s">
         <v>569</v>
@@ -19876,7 +19888,7 @@
         <v>0</v>
       </c>
       <c r="N362" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="O362" t="s">
         <v>571</v>
@@ -19885,7 +19897,7 @@
         <v>0.25</v>
       </c>
       <c r="R362" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="V362" t="s">
         <v>30</v>
@@ -19920,7 +19932,7 @@
         <v>-0.25</v>
       </c>
       <c r="J363" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="K363" t="s">
         <v>569</v>
@@ -19929,7 +19941,7 @@
         <v>0</v>
       </c>
       <c r="N363" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="O363" t="s">
         <v>571</v>
@@ -19938,7 +19950,7 @@
         <v>0.25</v>
       </c>
       <c r="R363" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="V363" t="s">
         <v>30</v>
@@ -19973,7 +19985,7 @@
         <v>-0.5</v>
       </c>
       <c r="J364" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="K364" t="s">
         <v>567</v>
@@ -19982,7 +19994,7 @@
         <v>-0.5</v>
       </c>
       <c r="N364" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O364" t="s">
         <v>567</v>
@@ -19991,7 +20003,7 @@
         <v>-0.25</v>
       </c>
       <c r="R364" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="S364" t="s">
         <v>569</v>
@@ -20000,7 +20012,7 @@
         <v>0</v>
       </c>
       <c r="V364" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="Z364" t="s">
         <v>31</v>
@@ -20032,7 +20044,7 @@
         <v>-0.25</v>
       </c>
       <c r="J365" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="K365" t="s">
         <v>569</v>
@@ -20041,7 +20053,7 @@
         <v>0</v>
       </c>
       <c r="N365" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O365" t="s">
         <v>569</v>
@@ -20050,7 +20062,7 @@
         <v>0</v>
       </c>
       <c r="R365" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="V365" t="s">
         <v>30</v>
@@ -20085,16 +20097,16 @@
         <v>-0.5</v>
       </c>
       <c r="J366" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="K366" t="s">
         <v>567</v>
       </c>
       <c r="L366">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="N366" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="O366" t="s">
         <v>569</v>
@@ -20103,7 +20115,7 @@
         <v>0</v>
       </c>
       <c r="R366" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="V366" t="s">
         <v>30</v>
@@ -20138,7 +20150,7 @@
         <v>-0.75</v>
       </c>
       <c r="J367" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="K367" t="s">
         <v>567</v>
@@ -20147,7 +20159,7 @@
         <v>-0.5</v>
       </c>
       <c r="N367" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="O367" t="s">
         <v>567</v>
@@ -20156,7 +20168,7 @@
         <v>-0.25</v>
       </c>
       <c r="R367" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="S367" t="s">
         <v>569</v>
@@ -20165,7 +20177,7 @@
         <v>0</v>
       </c>
       <c r="V367" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="Z367" t="s">
         <v>31</v>
@@ -20197,7 +20209,7 @@
         <v>-0.75</v>
       </c>
       <c r="J368" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="K368" t="s">
         <v>567</v>
@@ -20206,7 +20218,7 @@
         <v>-0.5</v>
       </c>
       <c r="N368" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O368" t="s">
         <v>567</v>
@@ -20215,7 +20227,7 @@
         <v>-0.25</v>
       </c>
       <c r="R368" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="S368" t="s">
         <v>569</v>
@@ -20224,7 +20236,7 @@
         <v>0</v>
       </c>
       <c r="V368" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Z368" t="s">
         <v>31</v>
@@ -20256,7 +20268,7 @@
         <v>-0.5</v>
       </c>
       <c r="J369" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="K369" t="s">
         <v>567</v>
@@ -20265,7 +20277,7 @@
         <v>-0.25</v>
       </c>
       <c r="N369" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="O369" t="s">
         <v>569</v>
@@ -20274,7 +20286,7 @@
         <v>0</v>
       </c>
       <c r="R369" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="V369" t="s">
         <v>30</v>
@@ -20309,7 +20321,7 @@
         <v>-0.25</v>
       </c>
       <c r="J370" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="K370" t="s">
         <v>569</v>
@@ -20318,7 +20330,7 @@
         <v>0</v>
       </c>
       <c r="N370" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O370" t="s">
         <v>571</v>
@@ -20327,7 +20339,7 @@
         <v>0.25</v>
       </c>
       <c r="R370" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="V370" t="s">
         <v>30</v>
@@ -20371,7 +20383,7 @@
         <v>0</v>
       </c>
       <c r="N371" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="O371" t="s">
         <v>571</v>
@@ -20380,7 +20392,7 @@
         <v>0.25</v>
       </c>
       <c r="R371" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="V371" t="s">
         <v>30</v>
@@ -20415,7 +20427,7 @@
         <v>0</v>
       </c>
       <c r="J372" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="K372" t="s">
         <v>569</v>
@@ -20424,7 +20436,7 @@
         <v>0</v>
       </c>
       <c r="N372" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="O372" t="s">
         <v>571</v>
@@ -20433,7 +20445,7 @@
         <v>0.25</v>
       </c>
       <c r="R372" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="V372" t="s">
         <v>30</v>
@@ -20468,7 +20480,7 @@
         <v>-0.5</v>
       </c>
       <c r="J373" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K373" t="s">
         <v>567</v>
@@ -20477,7 +20489,7 @@
         <v>-0.25</v>
       </c>
       <c r="N373" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O373" t="s">
         <v>569</v>
@@ -20486,7 +20498,7 @@
         <v>0</v>
       </c>
       <c r="R373" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="V373" t="s">
         <v>30</v>
@@ -20521,16 +20533,16 @@
         <v>-1</v>
       </c>
       <c r="J374" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="K374" t="s">
         <v>567</v>
       </c>
       <c r="L374">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="N374" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="O374" t="s">
         <v>567</v>
@@ -20539,7 +20551,7 @@
         <v>-0.5</v>
       </c>
       <c r="R374" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="S374" t="s">
         <v>569</v>
@@ -20548,7 +20560,7 @@
         <v>0</v>
       </c>
       <c r="V374" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="Z374" t="s">
         <v>31</v>
@@ -20577,10 +20589,10 @@
         <v>567</v>
       </c>
       <c r="H375" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J375" t="s">
         <v>1041</v>
-      </c>
-      <c r="J375" t="s">
-        <v>1042</v>
       </c>
       <c r="K375" t="s">
         <v>567</v>
@@ -20589,7 +20601,7 @@
         <v>845</v>
       </c>
       <c r="N375" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O375" t="s">
         <v>569</v>
@@ -20598,7 +20610,7 @@
         <v>0</v>
       </c>
       <c r="R375" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="V375" t="s">
         <v>30</v>
@@ -20630,19 +20642,19 @@
         <v>567</v>
       </c>
       <c r="H376" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J376" t="s">
         <v>1045</v>
-      </c>
-      <c r="J376" t="s">
-        <v>1046</v>
       </c>
       <c r="K376" t="s">
         <v>567</v>
       </c>
       <c r="L376" t="s">
+        <v>1046</v>
+      </c>
+      <c r="N376" t="s">
         <v>1047</v>
-      </c>
-      <c r="N376" t="s">
-        <v>1048</v>
       </c>
       <c r="O376" t="s">
         <v>569</v>
@@ -20651,7 +20663,7 @@
         <v>0</v>
       </c>
       <c r="R376" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="V376" t="s">
         <v>30</v>

--- a/src/analysis/python/data/bluebook_manual_data_online_WORKING.xlsx
+++ b/src/analysis/python/data/bluebook_manual_data_online_WORKING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivergiesecke/Dropbox/MPCounterfactual/src/analysis/python/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6CFAF3-FFA4-2049-8498-671DBC3F8134}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375F29E7-1C4C-854A-AEDB-B5E64FB14E79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6140" yWindow="460" windowWidth="19560" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4014,9 +4014,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R288" sqref="R288"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T311" sqref="S311:T311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17155,19 +17155,13 @@
         <v>912</v>
       </c>
       <c r="O311" t="s">
-        <v>569</v>
-      </c>
-      <c r="P311">
-        <v>0</v>
+        <v>582</v>
+      </c>
+      <c r="P311" t="s">
+        <v>582</v>
       </c>
       <c r="R311" t="s">
         <v>29</v>
-      </c>
-      <c r="S311" t="s">
-        <v>567</v>
-      </c>
-      <c r="T311">
-        <v>-0.5</v>
       </c>
       <c r="V311" t="s">
         <v>30</v>
